--- a/Doc/日式卡通渲染产品研究报告（粗略）.xlsx
+++ b/Doc/日式卡通渲染产品研究报告（粗略）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView xWindow="3930" windowWidth="9210" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="总体介绍" sheetId="4" r:id="rId1"/>
@@ -354,8 +354,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -376,56 +376,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,8 +397,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,17 +465,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,9 +481,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,27 +518,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -570,85 +570,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,85 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,6 +1149,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,7 +1181,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,6 +1201,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1206,60 +1250,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1268,133 +1268,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1659,14 +1659,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>84455</xdr:colOff>
+      <xdr:colOff>74930</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
@@ -1685,7 +1685,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="663575"/>
+          <a:off x="676275" y="663575"/>
           <a:ext cx="7780655" cy="3228340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1958,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="B3:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
